--- a/application/src/test/resources/CCD_TestDefinition_V33_RDM-2226.xlsx
+++ b/application/src/test/resources/CCD_TestDefinition_V33_RDM-2226.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-14060" yWindow="-28340" windowWidth="51200" windowHeight="28340" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="-5640" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -16101,7 +16101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="G1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
@@ -16793,8 +16793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/application/src/test/resources/CCD_TestDefinition_V33_RDM-2226.xlsx
+++ b/application/src/test/resources/CCD_TestDefinition_V33_RDM-2226.xlsx
@@ -16794,7 +16794,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/application/src/test/resources/CCD_TestDefinition_V33_RDM-2226.xlsx
+++ b/application/src/test/resources/CCD_TestDefinition_V33_RDM-2226.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-5640" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="287">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -914,6 +914,12 @@
   </si>
   <si>
     <t>ShowEventNotes</t>
+  </si>
+  <si>
+    <t>Positive integer value to say which fields to show ReadOnly in the content section of the final submit page of an event (number is display order, blank means dont show)</t>
+  </si>
+  <si>
+    <t>ShowSummaryContentOption</t>
   </si>
 </sst>
 </file>
@@ -925,7 +931,7 @@
     <numFmt numFmtId="165" formatCode="d\/m\/yy"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1133,6 +1139,13 @@
       <u/>
       <sz val="10"/>
       <color theme="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1423,7 +1436,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1613,6 +1626,8 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -13129,8 +13144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -16101,7 +16116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="O1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
@@ -16793,8 +16808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -16878,7 +16893,9 @@
       <c r="N2" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="O2" s="12"/>
+      <c r="O2" s="133" t="s">
+        <v>285</v>
+      </c>
       <c r="P2" s="12"/>
       <c r="Q2" s="12"/>
     </row>
@@ -16925,7 +16942,9 @@
       <c r="N3" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="O3" s="4"/>
+      <c r="O3" s="134" t="s">
+        <v>286</v>
+      </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
     </row>
@@ -16964,7 +16983,9 @@
       <c r="N4" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="O4" s="4"/>
+      <c r="O4" s="119">
+        <v>2</v>
+      </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
@@ -17001,7 +17022,9 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
+      <c r="O5" s="119">
+        <v>1</v>
+      </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
     </row>
